--- a/Database.xlsx
+++ b/Database.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -426,9 +426,86 @@
         <v>abc</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>thanh</v>
+      </c>
+      <c r="B4" t="str">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>hello</v>
+      </c>
+      <c r="B5" t="str">
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>thanh2</v>
+      </c>
+      <c r="B6" t="str">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>thanh3</v>
+      </c>
+      <c r="B7" t="str">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>thanh6</v>
+      </c>
+      <c r="B8" t="str">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>thanh7</v>
+      </c>
+      <c r="B9" t="str">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>hello1</v>
+      </c>
+      <c r="B10" t="str">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>hello23</v>
+      </c>
+      <c r="B11" t="str">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="str">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>thanh1</v>
+      </c>
+      <c r="B13" t="str">
+        <v>1234</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B13"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Database.xlsx
+++ b/Database.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -503,9 +503,17 @@
         <v>1234</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>thanh1234</v>
+      </c>
+      <c r="B14" t="str">
+        <v>1234</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B13"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B14"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Database.xlsx
+++ b/Database.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -412,108 +412,23 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Duy</v>
+        <v>duy</v>
       </c>
       <c r="B2" t="str">
-        <v>1234</v>
+        <v>1e94ba95f18eb2e1e3d6ff79592022903fd1173dd6511dfef09b2b0a92a38b89</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>helo</v>
+        <v>duy1</v>
       </c>
       <c r="B3" t="str">
-        <v>abc</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>thanh</v>
-      </c>
-      <c r="B4" t="str">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>hello</v>
-      </c>
-      <c r="B5" t="str">
-        <v>12345</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>thanh2</v>
-      </c>
-      <c r="B6" t="str">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>thanh3</v>
-      </c>
-      <c r="B7" t="str">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>thanh6</v>
-      </c>
-      <c r="B8" t="str">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>thanh7</v>
-      </c>
-      <c r="B9" t="str">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>hello1</v>
-      </c>
-      <c r="B10" t="str">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>hello23</v>
-      </c>
-      <c r="B11" t="str">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" t="str">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>thanh1</v>
-      </c>
-      <c r="B13" t="str">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>thanh1234</v>
-      </c>
-      <c r="B14" t="str">
-        <v>1234</v>
+        <v>96bed3a3d2fd55083994e8f15bbf510a811e36757e3093cba069184e94af09c4</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B14"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B3"/>
   </ignoredErrors>
 </worksheet>
 </file>